--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19FD76A1-6D01-46D3-B5C2-E2429BEFA150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939FDD88-7B47-453E-9C86-36DC7AA19A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,11 +276,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +583,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -597,7 +594,6 @@
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="45.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -626,14 +622,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.75">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
